--- a/resources/data/Lista_Ref_RW_230125.xlsx
+++ b/resources/data/Lista_Ref_RW_230125.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bconline-my.sharepoint.com/personal/cristian_echevarria_navicogroup_com/Documents/Documents/Proyectos_Python/PyQT_proyects/rwApp/resources/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RegistroReparaciones\resources\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="85" documentId="8_{20D33503-4DCD-45E2-A2EE-FC2F9A0DDA8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0464127D-92F2-400F-A562-149AE91178CE}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ADE1ADE-1643-47F2-8D6D-699A15621C76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{7D075615-5977-42F1-AD4D-C97FFA7F2F87}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3926" uniqueCount="2625">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3962" uniqueCount="2633">
   <si>
     <t>Item</t>
   </si>
@@ -7911,19 +7911,62 @@
   </si>
   <si>
     <t>PCB TST ASY HDS CARBON 9" BASE</t>
+  </si>
+  <si>
+    <t>003-34428-1D</t>
+  </si>
+  <si>
+    <t>@PCBA PANDEMONIUM 22/24 BASEBOARD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PANDEMONIUM </t>
+  </si>
+  <si>
+    <t>003-33136-3D</t>
+  </si>
+  <si>
+    <t>003-33025-3D</t>
+  </si>
+  <si>
+    <t>003-33024-3D</t>
+  </si>
+  <si>
+    <t>003-33137-3D</t>
+  </si>
+  <si>
+    <t>003-33135-3D</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -7946,9 +7989,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7964,10 +8018,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8287,10 +8337,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{817D229D-A76F-4861-B81F-978D031DAF1B}">
-  <dimension ref="A1:K1301"/>
+  <dimension ref="A1:K1312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A91" sqref="A91"/>
+    <sheetView tabSelected="1" topLeftCell="A1298" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A1310" sqref="A1310"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -53701,8 +53751,315 @@
         <v>0</v>
       </c>
     </row>
+    <row r="1302" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1302" t="s">
+        <v>2625</v>
+      </c>
+      <c r="B1302" s="2" t="s">
+        <v>2626</v>
+      </c>
+      <c r="C1302">
+        <v>0</v>
+      </c>
+      <c r="D1302">
+        <v>0</v>
+      </c>
+      <c r="E1302">
+        <v>0</v>
+      </c>
+      <c r="F1302">
+        <v>0</v>
+      </c>
+      <c r="G1302">
+        <v>0</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I1302" s="2" t="s">
+        <v>2627</v>
+      </c>
+      <c r="J1302">
+        <v>0</v>
+      </c>
+      <c r="K1302">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1303" s="3" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1303" s="3" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1303">
+        <v>0</v>
+      </c>
+      <c r="D1303">
+        <v>0</v>
+      </c>
+      <c r="E1303">
+        <v>0</v>
+      </c>
+      <c r="F1303">
+        <v>0</v>
+      </c>
+      <c r="G1303">
+        <v>0</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I1303" t="s">
+        <v>849</v>
+      </c>
+      <c r="J1303">
+        <v>0</v>
+      </c>
+      <c r="K1303">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1304" t="s">
+        <v>2629</v>
+      </c>
+      <c r="B1304" s="1" t="s">
+        <v>2588</v>
+      </c>
+      <c r="C1304">
+        <v>0</v>
+      </c>
+      <c r="D1304">
+        <v>0</v>
+      </c>
+      <c r="E1304">
+        <v>0</v>
+      </c>
+      <c r="F1304">
+        <v>0</v>
+      </c>
+      <c r="G1304">
+        <v>0</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I1304" t="s">
+        <v>849</v>
+      </c>
+      <c r="J1304">
+        <v>0</v>
+      </c>
+      <c r="K1304">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>2630</v>
+      </c>
+      <c r="B1305" s="1" t="s">
+        <v>2586</v>
+      </c>
+      <c r="C1305">
+        <v>0</v>
+      </c>
+      <c r="D1305">
+        <v>0</v>
+      </c>
+      <c r="E1305">
+        <v>0</v>
+      </c>
+      <c r="F1305">
+        <v>0</v>
+      </c>
+      <c r="G1305">
+        <v>0</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>849</v>
+      </c>
+      <c r="J1305">
+        <v>0</v>
+      </c>
+      <c r="K1305">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>2631</v>
+      </c>
+      <c r="B1306" s="1" t="s">
+        <v>2598</v>
+      </c>
+      <c r="C1306">
+        <v>0</v>
+      </c>
+      <c r="D1306">
+        <v>0</v>
+      </c>
+      <c r="E1306">
+        <v>0</v>
+      </c>
+      <c r="F1306">
+        <v>0</v>
+      </c>
+      <c r="G1306">
+        <v>0</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>849</v>
+      </c>
+      <c r="J1306">
+        <v>0</v>
+      </c>
+      <c r="K1306">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1307" t="s">
+        <v>2628</v>
+      </c>
+      <c r="B1307" s="1" t="s">
+        <v>2596</v>
+      </c>
+      <c r="C1307">
+        <v>0</v>
+      </c>
+      <c r="D1307">
+        <v>0</v>
+      </c>
+      <c r="E1307">
+        <v>0</v>
+      </c>
+      <c r="F1307">
+        <v>0</v>
+      </c>
+      <c r="G1307">
+        <v>0</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>849</v>
+      </c>
+      <c r="J1307">
+        <v>0</v>
+      </c>
+      <c r="K1307">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>2632</v>
+      </c>
+      <c r="B1308" s="1" t="s">
+        <v>2594</v>
+      </c>
+      <c r="C1308">
+        <v>0</v>
+      </c>
+      <c r="D1308">
+        <v>0</v>
+      </c>
+      <c r="E1308">
+        <v>0</v>
+      </c>
+      <c r="F1308">
+        <v>0</v>
+      </c>
+      <c r="G1308">
+        <v>0</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>849</v>
+      </c>
+      <c r="J1308">
+        <v>0</v>
+      </c>
+      <c r="K1308">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>159</v>
+      </c>
+      <c r="B1309" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C1309">
+        <v>0</v>
+      </c>
+      <c r="D1309">
+        <v>0</v>
+      </c>
+      <c r="E1309">
+        <v>0</v>
+      </c>
+      <c r="F1309">
+        <v>0</v>
+      </c>
+      <c r="G1309">
+        <v>0</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>2499</v>
+      </c>
+      <c r="I1309" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>2335</v>
+      </c>
+      <c r="B1310" s="3" t="s">
+        <v>2336</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1311" t="s">
+        <v>334</v>
+      </c>
+      <c r="B1311" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="C1311" s="5"/>
+      <c r="D1311" s="5"/>
+      <c r="E1311" s="4"/>
+    </row>
+    <row r="1312" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B1312" s="4"/>
+      <c r="C1312" s="6"/>
+      <c r="D1312" s="6"/>
+      <c r="E1312" s="6"/>
+      <c r="F1312" s="6"/>
+      <c r="G1312" s="6"/>
+      <c r="H1312" s="6"/>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1311:D1311"/>
+    <mergeCell ref="C1312:H1312"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K0000FF This data is internal to Brunswick.</oddFooter>
   </headerFooter>
